--- a/CudaPerf.xlsx
+++ b/CudaPerf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="512" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="412" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="K1 - blocs 1D" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>CUDA de base sur 1 GPU (accès coalescents)</t>
   </si>
@@ -35,11 +35,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> : blocs 1D</t>
+      <t>: blocs 1D</t>
     </r>
   </si>
   <si>
-    <t>Côté des matrices : </t>
+    <t>Côté des matrices :</t>
   </si>
   <si>
     <t>Utilisez bien des matrices de 4096x4096 pour vos benchs!!</t>
@@ -74,7 +74,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> : blocs 2D</t>
+      <t>: blocs 2D</t>
     </r>
   </si>
   <si>
@@ -129,11 +129,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> : blocs 2D</t>
+      <t>: blocs 2D</t>
     </r>
-  </si>
-  <si>
-    <t>Machine : </t>
   </si>
   <si>
     <t>CUBLAS</t>
@@ -150,7 +147,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> : Appel à CUBLAS et transposition par blocs 2D</t>
+      <t>: Appel à CUBLAS et transposition par blocs 2D</t>
     </r>
   </si>
   <si>
@@ -218,7 +215,7 @@
   </si>
   <si>
     <r>
-      <t>Meilleure perf K0 (code </t>
+      <t>Meilleure perf K0 (code</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +261,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -311,15 +308,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -338,19 +334,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14.4"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -563,7 +546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -604,10 +587,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,10 +599,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,6 +627,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,18 +683,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,10 +744,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,7 +815,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF772C2A"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2C4D75"/>
       <rgbColor rgb="FF4D3B62"/>
     </indexedColors>
@@ -844,33 +823,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Gflops</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:view3D>
       <c:rotX val="90"/>
       <c:rotY val="0"/>
@@ -1099,25 +1055,25 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>38.945846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>75.97857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>103.1137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>73.435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>117.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>118.445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>117.9799</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1213,22 +1169,22 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>73.75196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>106.7733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>109.1624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>117.6993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>119.1308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>119.1356</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1321,25 +1277,25 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>34.1908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>67.94077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>88.4386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>111.0221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>118.7995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>119.16288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>119.1316</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v/>
@@ -1435,22 +1391,22 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>46.846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>71.471443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>93.9502663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>156.115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>119.0837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>119.11898</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1549,19 +1505,19 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>44.7718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>68.1132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>106.46652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>164.292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>118.76454</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1663,16 +1619,16 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>23.78521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>46.48515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>114.6137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>166.4214</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1777,13 +1733,13 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>19.7585737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>48.4896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>128.62076</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v/>
@@ -1891,10 +1847,10 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>18.6820965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>63.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
@@ -2005,7 +1961,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>18.1995089</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -2154,12 +2110,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="83833984"/>
-        <c:axId val="15256098"/>
-        <c:axId val="6164858"/>
+        <c:axId val="54007745"/>
+        <c:axId val="81875759"/>
+        <c:axId val="41461481"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83833984"/>
+        <c:axId val="54007745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,14 +2132,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15256098"/>
+        <c:crossAx val="81875759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15256098"/>
+        <c:axId val="81875759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,11 +2163,11 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83833984"/>
+        <c:crossAx val="54007745"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="6164858"/>
+        <c:axId val="41461481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2184,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15256098"/>
+        <c:crossAx val="81875759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,33 +2223,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1440">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Performances des meilleures configs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2362,13 +2295,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>73.9626206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>166.4214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>235.2347</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
@@ -2385,11 +2318,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="1982228"/>
-        <c:axId val="43181055"/>
+        <c:axId val="28281671"/>
+        <c:axId val="57071221"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1982228"/>
+        <c:axId val="28281671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,14 +2339,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43181055"/>
+        <c:crossAx val="57071221"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43181055"/>
+        <c:axId val="57071221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2396,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1982228"/>
+        <c:crossAx val="28281671"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2493,15 +2426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>644400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>643680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2509,8 +2442,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3043080" y="6905880"/>
-        <a:ext cx="7314840" cy="4571640"/>
+        <a:off x="3032280" y="6896880"/>
+        <a:ext cx="7314480" cy="4571280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2528,15 +2461,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>703440</xdr:colOff>
+      <xdr:colOff>730440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>417240</xdr:colOff>
+      <xdr:colOff>443880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2544,8 +2477,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5277240" y="2891160"/>
-        <a:ext cx="7679160" cy="3767040"/>
+        <a:off x="5304240" y="2882160"/>
+        <a:ext cx="7678800" cy="3766680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2565,8 +2498,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2654,30 +2587,62 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="F9" s="9" t="n">
+        <v>6.7670986</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>3.5145108</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>1.9356783</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>1.878638</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>1.9226107</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>1.9064799</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>1.8650575</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>1.8582221</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="F10" s="9" t="n">
+        <v>20.3098864</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>39.1061494</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>71.0030016</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>73.1588365</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>71.4855927</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>72.0904471</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>73.702126</v>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>73.9626206</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2700,13 +2665,14 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -2741,36 +2707,33 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14"/>
-    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="n">
         <v>1</v>
       </c>
@@ -2806,216 +2769,298 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="21"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="n">
+        <v>3.52897</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1.8089179</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>1.3329</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>1.8715</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>1.16035</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>1.1649</v>
+      </c>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="n">
+        <v>1.86353</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>1.28725</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>1.16771</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>1.15368</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>1.1536</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="n">
+        <v>4.0197</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>2.0229</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>1.5542</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>1.2379443</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>1.1568982</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>1.15337</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>1.15367</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="n">
+        <v>2.9338419</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1.9231116</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1.4628973</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0.8804</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>1.15413</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>1.1537957</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="n">
+        <v>3.0699</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>2.0178146</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>1.2909</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0.8365544</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>1.157239</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="n">
+        <v>5.7783382</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2.9566771</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>1.1991576</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0.82585</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18"/>
       <c r="B17" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="n">
+        <v>6.9559608</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>2.8350361</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>1.0685601</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="7" t="n">
         <v>256</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="n">
+        <v>7.3569314</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>2.46039</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="7" t="n">
         <v>512</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="n">
+        <v>7.5528844</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="7" t="n">
         <v>1024</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="7" t="n">
         <v>1</v>
       </c>
@@ -3051,193 +3096,275 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="21"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="n">
+        <v>38.945846</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>75.97857</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>103.1137</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>73.435</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>117.68</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>118.445</v>
+      </c>
+      <c r="L26" s="10" t="n">
+        <v>117.9799</v>
+      </c>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="n">
+        <v>73.75196</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>106.7733</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>109.1624</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>117.6993</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>119.1308</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>119.1356</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="n">
+        <v>34.1908</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>67.94077</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>88.4386</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>111.0221</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>118.7995</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <v>119.16288</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>119.1316</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="n">
+        <v>46.846</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>71.471443</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>93.9502663</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>156.115</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>119.0837</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>119.11898</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="n">
+        <v>44.7718</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>68.1132</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>106.46652</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>164.292</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>118.76454</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="n">
+        <v>23.78521</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>46.48515</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>114.6137</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>166.4214</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="n">
+        <v>19.7585737</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>48.4896</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>128.62076</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7" t="n">
         <v>256</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="n">
+        <v>18.6820965</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="7" t="n">
         <v>512</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="n">
+        <v>18.1995089</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="7" t="n">
         <v>1024</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3265,8 +3392,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3300,41 +3427,38 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14"/>
-    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="n">
         <v>1</v>
       </c>
@@ -3370,216 +3494,222 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="12" t="n">
+        <v>1.3881</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="12" t="n">
+        <v>0.69693</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12" t="n">
+        <v>0.5842661</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="7" t="n">
         <v>256</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="7" t="n">
         <v>512</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="7" t="n">
         <v>1024</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="7" t="n">
         <v>1</v>
       </c>
@@ -3615,193 +3745,199 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10" t="n">
+        <v>99.0094</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="10" t="n">
+        <v>197.2053</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="10" t="n">
+        <v>235.2347</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="7" t="n">
         <v>256</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="7" t="n">
         <v>512</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="7" t="n">
         <v>1024</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3846,12 +3982,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,42 +4003,42 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3928,8 +4064,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3945,7 +4081,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +4097,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3969,130 +4105,142 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="17" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="10" t="n">
+      <c r="E7" s="34" t="n">
+        <v>1.8582221</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <v>73.9626206</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="10" t="e">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="9" t="e">
         <f aca="false">F7/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="10" t="e">
+      <c r="E8" s="37" t="n">
+        <v>0.82585</v>
+      </c>
+      <c r="F8" s="35" t="n">
+        <v>166.4214</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="9" t="n">
         <f aca="false">F8/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="10" t="n">
+        <v>2.25007441123578</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="10" t="e">
+      <c r="J8" s="19"/>
+      <c r="K8" s="9" t="e">
         <f aca="false">F8/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="10" t="e">
+      <c r="E9" s="37" t="n">
+        <v>0.5842661</v>
+      </c>
+      <c r="F9" s="35" t="n">
+        <v>235.2347</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="9" t="n">
         <f aca="false">F9/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="10" t="e">
+        <v>3.18045383048529</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <f aca="false">F9/F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="10" t="n">
+        <v>1.41348828936663</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="10" t="e">
+      <c r="K9" s="9" t="e">
         <f aca="false">F9/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="33"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="42" t="e">
+      <c r="H10" s="42" t="n">
         <f aca="false">F10/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42" t="n">
         <f aca="false">F10/F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42" t="n">
         <f aca="false">F10/F9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K10" s="43"/>
       <c r="L10" s="42" t="e">
@@ -4102,13 +4250,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="45" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="47"/>
@@ -4121,20 +4269,20 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="44"/>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
